--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi3-Flot1.xlsx
@@ -546,10 +546,10 @@
         <v>0.134456</v>
       </c>
       <c r="I2">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J2">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.554949</v>
+        <v>15.42521333333333</v>
       </c>
       <c r="N2">
-        <v>40.66484699999999</v>
+        <v>46.27564</v>
       </c>
       <c r="O2">
-        <v>0.1916980049968006</v>
+        <v>0.2413167708794786</v>
       </c>
       <c r="P2">
-        <v>0.1916980049968006</v>
+        <v>0.2413167708794786</v>
       </c>
       <c r="Q2">
-        <v>0.6075147409146666</v>
+        <v>0.6913374946488889</v>
       </c>
       <c r="R2">
-        <v>5.467632668231999</v>
+        <v>6.22203745184</v>
       </c>
       <c r="S2">
-        <v>0.005146115430521576</v>
+        <v>0.005807570122656125</v>
       </c>
       <c r="T2">
-        <v>0.005146115430521576</v>
+        <v>0.005807570122656123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.134456</v>
       </c>
       <c r="I3">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J3">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>49.005383</v>
       </c>
       <c r="O3">
-        <v>0.2310160949383169</v>
+        <v>0.2555517499330554</v>
       </c>
       <c r="P3">
-        <v>0.2310160949383169</v>
+        <v>0.2555517499330554</v>
       </c>
       <c r="Q3">
         <v>0.7321186418497778</v>
@@ -638,10 +638,10 @@
         <v>6.589067776648</v>
       </c>
       <c r="S3">
-        <v>0.006201605962882873</v>
+        <v>0.006150151530267768</v>
       </c>
       <c r="T3">
-        <v>0.006201605962882873</v>
+        <v>0.006150151530267767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.134456</v>
       </c>
       <c r="I4">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J4">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.761343</v>
+        <v>15.93058</v>
       </c>
       <c r="N4">
-        <v>53.284029</v>
+        <v>47.79174</v>
       </c>
       <c r="O4">
-        <v>0.2511860442384468</v>
+        <v>0.2492228820932917</v>
       </c>
       <c r="P4">
-        <v>0.2511860442384468</v>
+        <v>0.2492228820932917</v>
       </c>
       <c r="Q4">
-        <v>0.7960397114693333</v>
+        <v>0.7139873548266668</v>
       </c>
       <c r="R4">
-        <v>7.164357403223999</v>
+        <v>6.42588619344</v>
       </c>
       <c r="S4">
-        <v>0.006743066409109055</v>
+        <v>0.00599783992903717</v>
       </c>
       <c r="T4">
-        <v>0.006743066409109055</v>
+        <v>0.005997839929037168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.134456</v>
       </c>
       <c r="I5">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J5">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.730928</v>
+        <v>4.108632</v>
       </c>
       <c r="N5">
-        <v>8.192784</v>
+        <v>12.325896</v>
       </c>
       <c r="O5">
-        <v>0.03862157278422094</v>
+        <v>0.06427669981260728</v>
       </c>
       <c r="P5">
-        <v>0.03862157278422094</v>
+        <v>0.06427669981260727</v>
       </c>
       <c r="Q5">
-        <v>0.1223965517226667</v>
+        <v>0.184143408064</v>
       </c>
       <c r="R5">
-        <v>1.101568965504</v>
+        <v>1.657290672576</v>
       </c>
       <c r="S5">
-        <v>0.001036792592907832</v>
+        <v>0.001546893902376426</v>
       </c>
       <c r="T5">
-        <v>0.001036792592907832</v>
+        <v>0.001546893902376425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.134456</v>
       </c>
       <c r="I6">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877758</v>
       </c>
       <c r="J6">
-        <v>0.02684490863954198</v>
+        <v>0.02406616871877757</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.327564</v>
+        <v>12.12146366666667</v>
       </c>
       <c r="N6">
-        <v>60.982692</v>
+        <v>36.364391</v>
       </c>
       <c r="O6">
-        <v>0.2874782830422147</v>
+        <v>0.189631897281567</v>
       </c>
       <c r="P6">
-        <v>0.2874782830422147</v>
+        <v>0.189631897281567</v>
       </c>
       <c r="Q6">
-        <v>0.9110543150613333</v>
+        <v>0.5432678395884444</v>
       </c>
       <c r="R6">
-        <v>8.199488835552</v>
+        <v>4.889410556295999</v>
       </c>
       <c r="S6">
-        <v>0.007717328244120643</v>
+        <v>0.00456371323444009</v>
       </c>
       <c r="T6">
-        <v>0.007717328244120645</v>
+        <v>0.004563713234440089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I7">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J7">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.554949</v>
+        <v>15.42521333333333</v>
       </c>
       <c r="N7">
-        <v>40.66484699999999</v>
+        <v>46.27564</v>
       </c>
       <c r="O7">
-        <v>0.1916980049968006</v>
+        <v>0.2413167708794786</v>
       </c>
       <c r="P7">
-        <v>0.1916980049968006</v>
+        <v>0.2413167708794786</v>
       </c>
       <c r="Q7">
-        <v>21.77750757625733</v>
+        <v>24.78229170999111</v>
       </c>
       <c r="R7">
-        <v>195.997568186316</v>
+        <v>223.04062538992</v>
       </c>
       <c r="S7">
-        <v>0.1844721785807992</v>
+        <v>0.2081832650766156</v>
       </c>
       <c r="T7">
-        <v>0.1844721785807992</v>
+        <v>0.2081832650766155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I8">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J8">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>49.005383</v>
       </c>
       <c r="O8">
-        <v>0.2310160949383169</v>
+        <v>0.2555517499330554</v>
       </c>
       <c r="P8">
-        <v>0.2310160949383169</v>
+        <v>0.2555517499330554</v>
       </c>
       <c r="Q8">
         <v>26.24416857045822</v>
@@ -948,10 +948,10 @@
         <v>236.197517134124</v>
       </c>
       <c r="S8">
-        <v>0.2223082202718349</v>
+        <v>0.2204637394376408</v>
       </c>
       <c r="T8">
-        <v>0.2223082202718349</v>
+        <v>0.2204637394376408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I9">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J9">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.761343</v>
+        <v>15.93058</v>
       </c>
       <c r="N9">
-        <v>53.284029</v>
+        <v>47.79174</v>
       </c>
       <c r="O9">
-        <v>0.2511860442384468</v>
+        <v>0.2492228820932917</v>
       </c>
       <c r="P9">
-        <v>0.2511860442384468</v>
+        <v>0.2492228820932917</v>
       </c>
       <c r="Q9">
-        <v>28.53553943633466</v>
+        <v>25.59421851341333</v>
       </c>
       <c r="R9">
-        <v>256.8198549270119</v>
+        <v>230.34796662072</v>
       </c>
       <c r="S9">
-        <v>0.2417178875207003</v>
+        <v>0.2150038438559184</v>
       </c>
       <c r="T9">
-        <v>0.2417178875207003</v>
+        <v>0.2150038438559183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I10">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J10">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.730928</v>
+        <v>4.108632</v>
       </c>
       <c r="N10">
-        <v>8.192784</v>
+        <v>12.325896</v>
       </c>
       <c r="O10">
-        <v>0.03862157278422094</v>
+        <v>0.06427669981260728</v>
       </c>
       <c r="P10">
-        <v>0.03862157278422094</v>
+        <v>0.06427669981260727</v>
       </c>
       <c r="Q10">
-        <v>4.387534413461332</v>
+        <v>6.600966518431999</v>
       </c>
       <c r="R10">
-        <v>39.48780972115199</v>
+        <v>59.40869866588799</v>
       </c>
       <c r="S10">
-        <v>0.0371657789127281</v>
+        <v>0.05545131897202924</v>
       </c>
       <c r="T10">
-        <v>0.0371657789127281</v>
+        <v>0.05545131897202922</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.819827999999999</v>
       </c>
       <c r="I11">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097064</v>
       </c>
       <c r="J11">
-        <v>0.9623061991901166</v>
+        <v>0.8626970447097063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.327564</v>
+        <v>12.12146366666667</v>
       </c>
       <c r="N11">
-        <v>60.982692</v>
+        <v>36.364391</v>
       </c>
       <c r="O11">
-        <v>0.2874782830422147</v>
+        <v>0.189631897281567</v>
       </c>
       <c r="P11">
-        <v>0.2874782830422147</v>
+        <v>0.189631897281567</v>
       </c>
       <c r="Q11">
-        <v>32.65845404633066</v>
+        <v>19.47445666052755</v>
       </c>
       <c r="R11">
-        <v>293.926086416976</v>
+        <v>175.270109944748</v>
       </c>
       <c r="S11">
-        <v>0.2766421339040542</v>
+        <v>0.1635948773675024</v>
       </c>
       <c r="T11">
-        <v>0.2766421339040542</v>
+        <v>0.1635948773675024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H12">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I12">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J12">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.554949</v>
+        <v>15.42521333333333</v>
       </c>
       <c r="N12">
-        <v>40.66484699999999</v>
+        <v>46.27564</v>
       </c>
       <c r="O12">
-        <v>0.1916980049968006</v>
+        <v>0.2413167708794786</v>
       </c>
       <c r="P12">
-        <v>0.1916980049968006</v>
+        <v>0.2413167708794786</v>
       </c>
       <c r="Q12">
-        <v>0.2455162729206666</v>
+        <v>3.25289983816</v>
       </c>
       <c r="R12">
-        <v>2.209646456285999</v>
+        <v>29.27609854344</v>
       </c>
       <c r="S12">
-        <v>0.00207971098547987</v>
+        <v>0.02732593568020696</v>
       </c>
       <c r="T12">
-        <v>0.00207971098547987</v>
+        <v>0.02732593568020695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H13">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I13">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J13">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.005383</v>
       </c>
       <c r="O13">
-        <v>0.2310160949383169</v>
+        <v>0.2555517499330554</v>
       </c>
       <c r="P13">
-        <v>0.2310160949383169</v>
+        <v>0.2555517499330554</v>
       </c>
       <c r="Q13">
-        <v>0.2958727223837778</v>
+        <v>3.444784392602</v>
       </c>
       <c r="R13">
-        <v>2.662854501454</v>
+        <v>31.003059533418</v>
       </c>
       <c r="S13">
-        <v>0.002506268703599167</v>
+        <v>0.02893785896514683</v>
       </c>
       <c r="T13">
-        <v>0.002506268703599167</v>
+        <v>0.02893785896514682</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H14">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I14">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J14">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.761343</v>
+        <v>15.93058</v>
       </c>
       <c r="N14">
-        <v>53.284029</v>
+        <v>47.79174</v>
       </c>
       <c r="O14">
-        <v>0.2511860442384468</v>
+        <v>0.2492228820932917</v>
       </c>
       <c r="P14">
-        <v>0.2511860442384468</v>
+        <v>0.2492228820932917</v>
       </c>
       <c r="Q14">
-        <v>0.3217052853113333</v>
+        <v>3.35947257156</v>
       </c>
       <c r="R14">
-        <v>2.895347567802</v>
+        <v>30.23525314404</v>
       </c>
       <c r="S14">
-        <v>0.002725090308637531</v>
+        <v>0.02822119830833618</v>
       </c>
       <c r="T14">
-        <v>0.002725090308637531</v>
+        <v>0.02822119830833617</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H15">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I15">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J15">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.730928</v>
+        <v>4.108632</v>
       </c>
       <c r="N15">
-        <v>8.192784</v>
+        <v>12.325896</v>
       </c>
       <c r="O15">
-        <v>0.03862157278422094</v>
+        <v>0.06427669981260728</v>
       </c>
       <c r="P15">
-        <v>0.03862157278422094</v>
+        <v>0.06427669981260727</v>
       </c>
       <c r="Q15">
-        <v>0.04946438855466666</v>
+        <v>0.866436533424</v>
       </c>
       <c r="R15">
-        <v>0.4451794969919999</v>
+        <v>7.797928800815999</v>
       </c>
       <c r="S15">
-        <v>0.0004190012785850076</v>
+        <v>0.007278486938201615</v>
       </c>
       <c r="T15">
-        <v>0.0004190012785850076</v>
+        <v>0.007278486938201612</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01811266666666667</v>
+        <v>0.210882</v>
       </c>
       <c r="H16">
-        <v>0.054338</v>
+        <v>0.6326459999999999</v>
       </c>
       <c r="I16">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="J16">
-        <v>0.01084889217034147</v>
+        <v>0.113236786571516</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.327564</v>
+        <v>12.12146366666667</v>
       </c>
       <c r="N16">
-        <v>60.982692</v>
+        <v>36.364391</v>
       </c>
       <c r="O16">
-        <v>0.2874782830422147</v>
+        <v>0.189631897281567</v>
       </c>
       <c r="P16">
-        <v>0.2874782830422147</v>
+        <v>0.189631897281567</v>
       </c>
       <c r="Q16">
-        <v>0.3681863908773333</v>
+        <v>2.556198500953999</v>
       </c>
       <c r="R16">
-        <v>3.313677517896</v>
+        <v>23.005786508586</v>
       </c>
       <c r="S16">
-        <v>0.00311882089403989</v>
+        <v>0.02147330667962445</v>
       </c>
       <c r="T16">
-        <v>0.003118820894039891</v>
+        <v>0.02147330667962445</v>
       </c>
     </row>
   </sheetData>
